--- a/data/trans_dic/P38B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P38B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,44%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>75,85; 89,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>76,67; 90,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>77,86; 96,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>83,74; 95,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>79,91; 92,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>84,95; 95,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>82,01; 90,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>80,65; 90,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>85,25; 94,93</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,39%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>80,11; 86,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>79,9; 86,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>81,43; 89,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>82,39; 88,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>85,31; 90,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>89,98; 94,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>81,85; 86,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>83,53; 87,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>86,99; 91,42</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,73%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>78,65; 83,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>79,6; 84,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>61,35; 78,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>83,98; 88,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>88,82; 92,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>81,49; 86,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>82,09; 85,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>85,01; 88,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>70,8; 81,5</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,12%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>80,21; 86,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>78,21; 84,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>75,69; 83,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>88,08; 92,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>85,83; 90,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>84,29; 91,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>84,92; 88,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>82,77; 86,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>81,31; 87,96</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,48%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,88%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>78,97; 83,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>78,36; 83,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>76,88; 83,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>86,3; 90,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>80,74; 85,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>81,22; 87,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>83,19; 86,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>80,34; 83,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>80,32; 84,84</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,25%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,77; 83,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,48; 83,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>75,14; 81,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,55; 88,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,23; 88,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>85,02; 88,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>84,18; 85,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>83,79; 85,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>81,11; 84,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,31%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>85,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>90,05%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>75,85; 89,11</t>
+          <t>80,15; 85,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,67; 90,67</t>
+          <t>80,59; 86,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,86; 96,74</t>
+          <t>82,39; 90,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83,74; 95,18</t>
+          <t>83,83; 88,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,91; 92,01</t>
+          <t>85,41; 90,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,95; 95,72</t>
+          <t>90,93; 94,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,01; 90,64</t>
+          <t>82,46; 86,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,65; 90,42</t>
+          <t>83,7; 87,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,25; 94,93</t>
+          <t>87,45; 91,9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,94%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,39%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>61,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>85,76%</t>
+          <t>86,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>72,11%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,11; 86,02</t>
+          <t>78,65; 83,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,9; 86,33</t>
+          <t>79,6; 84,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,43; 89,59</t>
+          <t>32,47; 79,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,39; 88,29</t>
+          <t>83,98; 88,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>85,31; 90,78</t>
+          <t>88,82; 92,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,98; 94,3</t>
+          <t>82,55; 86,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,85; 86,43</t>
+          <t>82,09; 85,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,53; 87,86</t>
+          <t>85,01; 88,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,99; 91,42</t>
+          <t>46,81; 81,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,11%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73,52%</t>
+          <t>79,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>83,9%</t>
+          <t>86,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>78,73%</t>
+          <t>85,42%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,65; 83,78</t>
+          <t>80,21; 86,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,6; 84,47</t>
+          <t>78,21; 84,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,35; 78,73</t>
+          <t>75,44; 83,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>83,98; 88,38</t>
+          <t>88,08; 92,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,82; 92,39</t>
+          <t>85,83; 90,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,49; 86,04</t>
+          <t>85,64; 94,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,09; 85,59</t>
+          <t>84,92; 88,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,01; 88,0</t>
+          <t>82,77; 86,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,8; 81,5</t>
+          <t>82,27; 90,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>81,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,23%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>86,77%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>81,25%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,21; 86,09</t>
+          <t>78,97; 83,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,21; 84,02</t>
+          <t>78,36; 83,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,69; 83,68</t>
+          <t>77,24; 83,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,08; 92,25</t>
+          <t>86,3; 90,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,83; 90,21</t>
+          <t>80,74; 85,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,29; 91,98</t>
+          <t>61,71; 87,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>84,92; 88,47</t>
+          <t>83,19; 86,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,77; 86,48</t>
+          <t>80,34; 83,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,31; 87,96</t>
+          <t>70,73; 84,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>81,48%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>81,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,21%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>82,11%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82,88%</t>
+          <t>81,07%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,97; 83,69</t>
+          <t>80,77; 83,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,36; 83,53</t>
+          <t>80,48; 83,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,88; 83,14</t>
+          <t>59,33; 81,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,3; 90,25</t>
+          <t>86,55; 88,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,74; 85,42</t>
+          <t>86,23; 88,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,22; 87,62</t>
+          <t>80,26; 88,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,19; 86,62</t>
+          <t>84,18; 85,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,34; 83,82</t>
+          <t>83,79; 85,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,32; 84,84</t>
+          <t>72,12; 84,6</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>82,13%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>81,88%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>79,37%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>87,79%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>87,41%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>86,71%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>85,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>84,71%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>83,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>80,77; 83,46</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>80,48; 83,15</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>75,14; 81,41</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>86,55; 88,81</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>86,23; 88,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>85,02; 88,22</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>84,18; 85,79</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>83,79; 85,44</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>81,11; 84,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P38B-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,15; 85,61</t>
+          <t>79,98; 85,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,59; 86,38</t>
+          <t>80,61; 86,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,39; 90,49</t>
+          <t>82,52; 90,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>83,83; 88,98</t>
+          <t>83,55; 88,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,41; 90,23</t>
+          <t>84,97; 90,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,93; 94,64</t>
+          <t>90,48; 94,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,46; 86,55</t>
+          <t>82,53; 86,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>83,7; 87,59</t>
+          <t>83,73; 87,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>87,45; 91,9</t>
+          <t>87,21; 91,83</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,65; 83,78</t>
+          <t>79,02; 83,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,6; 84,47</t>
+          <t>79,8; 84,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,47; 79,2</t>
+          <t>33,05; 78,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>83,98; 88,38</t>
+          <t>84,26; 88,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>88,82; 92,39</t>
+          <t>88,89; 92,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,55; 86,85</t>
+          <t>82,28; 86,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,09; 85,59</t>
+          <t>82,15; 85,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85,01; 88,0</t>
+          <t>84,93; 87,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,81; 81,98</t>
+          <t>49,08; 82,01</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,21; 86,09</t>
+          <t>80,2; 85,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>78,21; 84,02</t>
+          <t>78,22; 84,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,44; 83,7</t>
+          <t>75,18; 83,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,08; 92,25</t>
+          <t>87,74; 92,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,83; 90,21</t>
+          <t>85,85; 90,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>85,64; 94,63</t>
+          <t>85,66; 94,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,92; 88,47</t>
+          <t>84,95; 88,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82,77; 86,48</t>
+          <t>82,63; 86,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,27; 90,75</t>
+          <t>81,94; 90,11</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>78,97; 83,69</t>
+          <t>78,64; 83,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,36; 83,53</t>
+          <t>78,24; 83,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,24; 83,54</t>
+          <t>76,98; 83,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>86,3; 90,25</t>
+          <t>86,23; 90,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,74; 85,42</t>
+          <t>80,74; 85,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,71; 87,92</t>
+          <t>66,4; 88,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,19; 86,62</t>
+          <t>83,41; 86,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,34; 83,82</t>
+          <t>80,39; 83,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,73; 84,72</t>
+          <t>69,65; 84,75</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,77; 83,46</t>
+          <t>80,74; 83,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,48; 83,15</t>
+          <t>80,45; 83,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,33; 81,52</t>
+          <t>57,8; 81,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,55; 88,81</t>
+          <t>86,58; 88,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>86,23; 88,45</t>
+          <t>86,37; 88,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,26; 88,96</t>
+          <t>81,36; 88,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,18; 85,79</t>
+          <t>84,15; 85,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,79; 85,44</t>
+          <t>83,85; 85,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>72,12; 84,6</t>
+          <t>71,59; 84,8</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de colesterol por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1832</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>583110</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>561816</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>554465</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>597492</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>588802</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>624179</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1180602</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1150619</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1178643</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>561887; 602030</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>541689; 580327</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>524353; 575854</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>577804; 614184</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>569227; 603817</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>609268; 634381</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1150542; 1204686</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1123498; 1176681</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1141377; 1201855</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1652</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>823935</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>830531</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>738415</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>888268</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>944987</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>811868</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1712204</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1775517</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1550283</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>800353; 849508</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>807173; 856532</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>394021; 940808</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>866083; 909650</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>925337; 961670</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>788234; 830635</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1676463; 1744538</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1743281; 1805401</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1055236; 1763192</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>622907</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>608742</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>561307</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>695654</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>690033</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>836650</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1318561</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1298775</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1397957</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>600492; 642479</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>586187; 630374</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>529003; 587992</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>676468; 710869</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>672320; 708009</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>799031; 882268</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1291003; 1344087</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1266211; 1324422</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1341006; 1474602</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1410</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1608</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1539</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2267</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>764948</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>753456</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>747059</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>924863</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>864884</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>895106</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1689811</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1618340</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1642165</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>738250; 787971</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>728729; 775865</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>713492; 774714</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>903723; 945131</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>839467; 887762</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>726560; 963935</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1657202; 1721043</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1584495; 1653409</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1407744; 1712845</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2632</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2887</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2872</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4852</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5472</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5520</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7739</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2794901</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2754546</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2601246</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3106278</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3088706</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3167804</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5901178</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5843250</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5769048</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2747559; 2838568</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2706648; 2797584</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1998847; 2821310</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3063703; 3145389</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3052190; 3128441</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2976473; 3253470</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5841085; 5960478</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5783798; 5906573</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5094912; 6034595</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>